--- a/DpndceTrnPrmVsClsrts.xlsx
+++ b/DpndceTrnPrmVsClsrts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
   <si>
     <t>1 - max_depth;</t>
   </si>
@@ -386,6 +386,51 @@
   </si>
   <si>
     <t>12149(1)</t>
+  </si>
+  <si>
+    <t>1   (39729)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2   (4919) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3   (1874) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4   (886)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5   (386)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6   (195)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7   (97)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8   (40)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9   (19)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10  (8)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11  (2)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12  (3)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13  (1)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9173(1)    </t>
+  </si>
+  <si>
+    <t>new maps</t>
   </si>
 </sst>
 </file>
@@ -717,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -729,10 +774,11 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,8 +797,14 @@
       <c r="F1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>40</v>
+      </c>
+      <c r="U1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -771,8 +823,11 @@
       <c r="F2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -791,8 +846,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -811,8 +869,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -831,8 +892,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -851,8 +915,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -871,8 +938,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -891,8 +961,11 @@
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -911,8 +984,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -931,8 +1007,11 @@
       <c r="F10">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -951,8 +1030,11 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -971,13 +1053,19 @@
       <c r="F12">
         <v>8400</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -993,8 +1081,11 @@
       <c r="F14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1010,8 +1101,11 @@
       <c r="F15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -1027,8 +1121,11 @@
       <c r="F16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -1044,8 +1141,11 @@
       <c r="F17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -1061,8 +1161,11 @@
       <c r="F18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1078,8 +1181,11 @@
       <c r="F19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>72</v>
       </c>
@@ -1095,8 +1201,11 @@
       <c r="F20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -1112,8 +1221,11 @@
       <c r="F21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -1129,8 +1241,11 @@
       <c r="F22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -1146,8 +1261,11 @@
       <c r="F23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -1163,8 +1281,11 @@
       <c r="F24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1180,8 +1301,11 @@
       <c r="F25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -1197,8 +1321,11 @@
       <c r="F26" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="C27" t="s">
         <v>93</v>
       </c>
@@ -1211,8 +1338,11 @@
       <c r="F27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="C28" t="s">
         <v>94</v>
       </c>
@@ -1226,7 +1356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7">
       <c r="C29" t="s">
         <v>95</v>
       </c>
@@ -1240,7 +1370,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7">
       <c r="C30" t="s">
         <v>96</v>
       </c>
@@ -1254,7 +1384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:7">
       <c r="C31" t="s">
         <v>97</v>
       </c>
@@ -1268,7 +1398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7">
       <c r="C32" t="s">
         <v>80</v>
       </c>
